--- a/document/JSON交互字段说明v1.1.xlsx
+++ b/document/JSON交互字段说明v1.1.xlsx
@@ -26,13 +26,14 @@
     <sheet name="读取个人设置" sheetId="17" r:id="rId17"/>
     <sheet name="热门话题列表" sheetId="18" r:id="rId18"/>
     <sheet name="热门话题详情" sheetId="19" r:id="rId19"/>
+    <sheet name="标签页" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="388">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,23 +163,841 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是否已关注发布人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-否 1-是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论人昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复人昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区首页分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击列表中的某条进入详情。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录分享信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区动态发布</t>
+  </si>
+  <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否已关注发布人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-否 1-是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片地址</t>
+    <t>图片内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用流传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签(tags)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得标签数据</t>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈、举报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区动态的意见、反馈、举报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击发现，显示发现信息的全部接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态发布人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态发布人头像地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态图片地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题图片地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题评论人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区首页、热门话题详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区动态、热门话题ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态、话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区动态、个人、热门话题、举报、黄历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统消息、举报消息、评论、回复四大类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息人头像地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息列表</t>
+  </si>
+  <si>
+    <t>消息详情</t>
+  </si>
+  <si>
+    <t>消息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息操作</t>
+  </si>
+  <si>
+    <t>操作方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigImgURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>likedNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectionNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisherId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisherName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisherURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastCommentTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFollow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博、微信朋友圈、qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shareWay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actUserPhotoURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>likeNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topicId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topicURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topicCommentNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油画,丙烯,素描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签合集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisherHPURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageHPURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagePerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagePerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messagePublishTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operateMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>likedNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fansNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">文艺青年,知识青年 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被赞作品缩略图地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumbnailLikedURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的被赞</t>
+  </si>
+  <si>
+    <t>我的被赞列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞人头像地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>likedHPURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>likedId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>likedName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>likedTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的关注、粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的关注列表、粉丝列表,按照最新操作时间处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关人昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关人人头像地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关人签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personHPURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personAutograph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注、粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人头像地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weChatNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constellation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autograph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画室黄历详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击画室活动，显示详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画室id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artRoomId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bussHPURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业头像地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画室名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artRoomName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动发布日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询与报名 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityPublishTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -186,7 +1005,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评论人昵称</t>
+    <t>评论人名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -194,23 +1013,198 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回复人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复人昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享方式</t>
+    <t>评论时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论人头像ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新回复人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新回复人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新回复内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentPersonId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentPersonName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentPersonHPURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerHPURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新回复人头像ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略图地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略图数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新评论人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新评论人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新评论人头像地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisherID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisheTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topicContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topicThumbnailURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumb1nailNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentatorID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentatorName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentatorHPURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门话题详情</t>
+  </si>
+  <si>
+    <t>点击热门话题,显示详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharedNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否关注发布人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFollowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">话题内容 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区首页列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区动态发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区首页、热门话题详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -218,89 +1212,333 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击列表中的某条进入详情。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录分享信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区动态发布</t>
+    <t>意见、反馈、举报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄历详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的被赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门话题列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门话题详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的关注、粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json003</t>
+  </si>
+  <si>
+    <t>Json005</t>
+  </si>
+  <si>
+    <t>Json006</t>
+  </si>
+  <si>
+    <t>Json007</t>
+  </si>
+  <si>
+    <t>Json008</t>
+  </si>
+  <si>
+    <t>Json009</t>
+  </si>
+  <si>
+    <t>Json010</t>
+  </si>
+  <si>
+    <t>Json011</t>
+  </si>
+  <si>
+    <t>Json012</t>
+  </si>
+  <si>
+    <t>Json013</t>
+  </si>
+  <si>
+    <t>Json014</t>
+  </si>
+  <si>
+    <t>Json016</t>
+  </si>
+  <si>
+    <t>Json017</t>
+  </si>
+  <si>
+    <t>读取个人设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json018</t>
+  </si>
+  <si>
+    <t>Json015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区动态图片（activityImgs）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态内容(activityObj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回结果区域（returnObj）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstractInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回结果区域（returnObj）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区动态（activityObjs）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新评论与回复（commentAnswers）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区动态图片（activityImgs）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举报证据图片（reportImgs）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态区(activities)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门话题(hotTopics)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画室黄历（artRooms）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画室基本信息（artRoomObj）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstractInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动信息(activityInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论(comments)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息列表(messages)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息列表(message)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态内容(activityObj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区动态图片（activityImgs）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我发布的作品（myActObjs）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstractInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我赞过的作品（myLikedActObjs）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息(userInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被赞列表(likedList)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的关注、粉丝列表(myLikedList)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息(myConfig)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门话题列表(comments)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topicImgURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topicId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布人基本信息（publisherInfo）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题信息(topicInfo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题图片信息(topicImgInfoList)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论(comments)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dynamicBaseInfo/insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dynamicBaseInfo/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区动态（activityObj）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图片内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用流传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签(tags)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得标签数据</t>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈、举报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区动态的意见、反馈、举报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举报内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击发现，显示发现信息的全部接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态发布人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态发布人头像地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态图片地址</t>
+    <t>点赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -308,1219 +1546,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点赞数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题图片地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题评论人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区首页、热门话题详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区动态、热门话题ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态、话题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区动态、个人、热门话题、举报、黄历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发布时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统消息、举报消息、评论、回复四大类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息人头像地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息列表</t>
-  </si>
-  <si>
-    <t>消息详情</t>
-  </si>
-  <si>
-    <t>消息ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息操作</t>
-  </si>
-  <si>
-    <t>操作方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申诉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigImgURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>likedNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectionNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>publisherId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>publisherName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>publisherURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastCommentTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFollow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgSeq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answerContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answerNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微博、微信朋友圈、qq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shareWay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tagId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举报人id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgSeq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tagType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tagValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actUserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actUserPhotoURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>likeNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>topicId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>topicURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>topicCommentNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roomName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roomURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油画,丙烯,素描</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签合集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>publisherHPURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageHPURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagePerId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagePerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messagePublishTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operateMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgSeq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>likedNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被赞数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fansNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉丝数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地理位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">文艺青年,知识青年 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被赞作品缩略图地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thumbnailLikedURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的被赞</t>
-  </si>
-  <si>
-    <t>我的被赞列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞人头像地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>likedHPURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>likedId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>likedName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>likedTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的关注、粉丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的关注列表、粉丝列表,按照最新操作时间处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关人昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关人人头像地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关人签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>personId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>personName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>personHPURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>personAutograph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注、粉丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人头像地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weChatNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>constellation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autograph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画室黄历详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击画室活动，显示详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画室id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>artRoomId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bussHPURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业头像地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画室名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>artRoomName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动发布日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收费方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">咨询与报名 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityPublishTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>personNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>consult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论人头像ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新回复人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新回复人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新回复内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentPersonId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentPersonName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentPersonHPURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answerHPURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新回复人头像ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answerID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answerName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answerContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩略图地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩略图数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新评论人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新评论人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新评论人头像地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>publisherID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>publisheTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>topicContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>topicThumbnailURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thumb1nailNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentatorID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentatorName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentatorHPURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门话题详情</t>
-  </si>
-  <si>
-    <t>点击热门话题,显示详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharedNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否关注发布人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFollowed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">话题内容 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区首页列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区动态发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区首页、热门话题详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区首页分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意见、反馈、举报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄历详情页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的被赞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门话题列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门话题详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的关注、粉丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Json002</t>
-  </si>
-  <si>
-    <t>Json003</t>
-  </si>
-  <si>
-    <t>Json005</t>
-  </si>
-  <si>
-    <t>Json006</t>
-  </si>
-  <si>
-    <t>Json007</t>
-  </si>
-  <si>
-    <t>Json008</t>
-  </si>
-  <si>
-    <t>Json009</t>
-  </si>
-  <si>
-    <t>Json010</t>
-  </si>
-  <si>
-    <t>Json011</t>
-  </si>
-  <si>
-    <t>Json012</t>
-  </si>
-  <si>
-    <t>Json013</t>
-  </si>
-  <si>
-    <t>Json014</t>
-  </si>
-  <si>
-    <t>Json016</t>
-  </si>
-  <si>
-    <t>Json017</t>
-  </si>
-  <si>
-    <t>读取个人设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Json018</t>
-  </si>
-  <si>
-    <t>Json015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Json004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区动态图片（activityImgs）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态内容(activityObj)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回结果区域（returnObj）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgSeq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tagId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tagValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abstractInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回结果区域（returnObj）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区动态（activityObjs）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新评论与回复（commentAnswers）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区动态图片（activityImgs）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举报证据图片（reportImgs）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态区(activities)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门话题(hotTopics)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画室黄历（artRooms）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画室基本信息（artRoomObj）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abstractInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动信息(activityInfo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论(comments)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息列表(messages)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息列表(message)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态内容(activityObj)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区动态图片（activityImgs）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我发布的作品（myActObjs）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abstractInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我赞过的作品（myLikedActObjs）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息(userInfo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被赞列表(likedList)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的关注、粉丝列表(myLikedList)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息(myConfig)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门话题列表(comments)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>topicImgURL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>topicId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布人基本信息（publisherInfo）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题信息(topicInfo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题图片信息(topicImgInfoList)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论(comments)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dynamicBaseInfo/insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Json001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dynamicBaseInfo/list</t>
+    <t>读取标签内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取标签信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tagBaseInfo/readTag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1972,10 +2014,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1988,16 +2030,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>290</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2005,13 +2047,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2019,10 +2061,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2031,10 +2073,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -2043,13 +2085,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -2057,10 +2099,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -2069,10 +2111,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -2081,10 +2123,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2093,10 +2135,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2105,10 +2147,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -2117,10 +2159,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -2129,10 +2171,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2141,10 +2183,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2153,10 +2195,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -2165,10 +2207,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2177,10 +2219,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -2189,10 +2231,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2201,10 +2243,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -2213,12 +2255,26 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>387</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2241,6 +2297,7 @@
     <hyperlink ref="B18" location="热门话题列表!A1" display="热门话题列表"/>
     <hyperlink ref="B19" location="热门话题详情!A1" display="热门话题详情"/>
     <hyperlink ref="B16" location="个人设置!A1" display="个人设置"/>
+    <hyperlink ref="B20" location="标签页!A1" display="读取标签内容"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2270,11 +2327,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -2292,7 +2349,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2327,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -2395,7 +2452,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -2417,10 +2474,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4" t="str">
@@ -2433,10 +2490,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="4" t="str">
@@ -2449,10 +2506,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4" t="str">
@@ -2465,10 +2522,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4" t="str">
@@ -2481,13 +2538,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2499,10 +2556,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="str">
@@ -2547,11 +2604,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -2569,7 +2626,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2604,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="str">
@@ -2676,7 +2733,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -2698,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4" t="str">
@@ -2714,10 +2771,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="4" t="str">
@@ -2730,10 +2787,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4" t="str">
@@ -2746,10 +2803,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4" t="str">
@@ -2762,13 +2819,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -2780,10 +2837,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="str">
@@ -2796,10 +2853,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="4" t="str">
@@ -2844,11 +2901,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -2866,7 +2923,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2901,10 +2958,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="str">
@@ -2918,13 +2975,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -2934,7 +2991,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2959,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
@@ -2976,10 +3033,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="4" t="str">
@@ -2993,7 +3050,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3018,10 +3075,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4" t="str">
@@ -3034,13 +3091,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -3145,11 +3202,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -3167,7 +3224,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3202,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -3278,7 +3335,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -3300,10 +3357,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4" t="str">
@@ -3316,10 +3373,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="4" t="str">
@@ -3332,10 +3389,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4" t="str">
@@ -3348,10 +3405,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4" t="str">
@@ -3364,10 +3421,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="4" t="str">
@@ -3380,10 +3437,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="str">
@@ -3396,13 +3453,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3411,7 +3468,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3436,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -3452,7 +3509,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>19</v>
@@ -3468,7 +3525,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>20</v>
@@ -3484,7 +3541,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>21</v>
@@ -3500,7 +3557,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>25</v>
@@ -3516,7 +3573,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>26</v>
@@ -3532,7 +3589,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>31</v>
@@ -3548,7 +3605,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>22</v>
@@ -3564,7 +3621,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>23</v>
@@ -3580,7 +3637,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>24</v>
@@ -3596,7 +3653,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>27</v>
@@ -3611,7 +3668,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3636,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
@@ -3652,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>19</v>
@@ -3668,7 +3725,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>20</v>
@@ -3684,7 +3741,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>21</v>
@@ -3700,7 +3757,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>25</v>
@@ -3716,7 +3773,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>26</v>
@@ -3732,7 +3789,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>31</v>
@@ -3748,7 +3805,7 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>22</v>
@@ -3764,7 +3821,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>23</v>
@@ -3780,7 +3837,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>24</v>
@@ -3796,7 +3853,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>27</v>
@@ -3846,11 +3903,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -3868,7 +3925,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -3903,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -3971,7 +4028,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -3994,10 +4051,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4" t="str">
@@ -4011,10 +4068,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="4" t="str">
@@ -4028,10 +4085,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4" t="str">
@@ -4045,10 +4102,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4" t="str">
@@ -4062,10 +4119,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="4" t="str">
@@ -4111,11 +4168,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -4133,7 +4190,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -4168,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -4181,13 +4238,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" ref="E9" si="0">"private String "&amp;B9&amp;" ;//"&amp;C9</f>
@@ -4266,13 +4323,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4282,7 +4339,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -4305,10 +4362,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4" t="str">
@@ -4322,10 +4379,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4" t="str">
@@ -4339,10 +4396,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="4" t="str">
@@ -4356,10 +4413,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="str">
@@ -4373,10 +4430,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="4" t="str">
@@ -4422,11 +4479,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -4460,7 +4517,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -4483,10 +4540,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="4" t="str">
@@ -4500,10 +4557,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="4" t="str">
@@ -4517,10 +4574,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="4" t="str">
@@ -4534,10 +4591,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4" t="str">
@@ -4551,10 +4608,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="4" t="str">
@@ -4568,10 +4625,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="4" t="str">
@@ -4584,10 +4641,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="4" t="str">
@@ -4600,7 +4657,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
@@ -4715,11 +4772,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -4770,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -4850,7 +4907,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -4873,10 +4930,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4" t="str">
@@ -4890,10 +4947,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="4" t="str">
@@ -4907,10 +4964,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4" t="str">
@@ -4924,10 +4981,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4" t="str">
@@ -4941,10 +4998,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="4" t="str">
@@ -4958,10 +5015,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="str">
@@ -4974,10 +5031,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="4" t="str">
@@ -5003,7 +5060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -5022,11 +5079,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -5044,7 +5101,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -5141,7 +5198,7 @@
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -5168,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
@@ -5185,10 +5242,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="4" t="str">
@@ -5202,10 +5259,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4" t="str">
@@ -5219,7 +5276,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>24</v>
@@ -5236,10 +5293,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="4" t="str">
@@ -5253,10 +5310,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="str">
@@ -5270,10 +5327,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="4" t="str">
@@ -5287,10 +5344,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="4" t="str">
@@ -5304,10 +5361,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="4" t="str">
@@ -5321,10 +5378,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="4" t="str">
@@ -5338,10 +5395,10 @@
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="4" t="str">
@@ -5355,7 +5412,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>21</v>
@@ -5372,7 +5429,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>26</v>
@@ -5389,10 +5446,10 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="4" t="str">
@@ -5419,8 +5476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5438,11 +5495,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -5460,7 +5517,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -5495,10 +5552,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="str">
@@ -5567,7 +5624,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="11"/>
@@ -5592,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
@@ -5608,10 +5665,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="4" t="str">
@@ -5624,10 +5681,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4" t="str">
@@ -5640,7 +5697,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>24</v>
@@ -5656,10 +5713,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="4" t="str">
@@ -5669,7 +5726,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -5691,10 +5748,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="4" t="str">
@@ -5707,10 +5764,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="4" t="str">
@@ -5720,7 +5777,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -5742,10 +5799,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="4" t="str">
@@ -5755,7 +5812,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -5777,10 +5834,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="4" t="str">
@@ -5793,10 +5850,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="4" t="str">
@@ -5809,10 +5866,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="4" t="str">
@@ -5825,10 +5882,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="4" t="str">
@@ -5841,10 +5898,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="4" t="str">
@@ -5857,10 +5914,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="4" t="str">
@@ -5873,10 +5930,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="4" t="str">
@@ -5889,10 +5946,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="4" t="str">
@@ -5905,10 +5962,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="4" t="str">
@@ -5921,10 +5978,10 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="4" t="str">
@@ -5937,7 +5994,7 @@
         <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>21</v>
@@ -5954,7 +6011,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>26</v>
@@ -5971,10 +6028,10 @@
         <v>12</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="4" t="str">
@@ -6024,7 +6081,7 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -6077,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -6095,7 +6152,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6145,7 +6202,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6170,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
@@ -6186,7 +6243,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>19</v>
@@ -6202,7 +6259,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>20</v>
@@ -6218,7 +6275,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>21</v>
@@ -6234,7 +6291,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>25</v>
@@ -6250,7 +6307,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>26</v>
@@ -6266,7 +6323,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>31</v>
@@ -6282,7 +6339,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>22</v>
@@ -6298,7 +6355,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>23</v>
@@ -6314,7 +6371,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>24</v>
@@ -6330,7 +6387,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>27</v>
@@ -6357,12 +6414,207 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4" t="str">
+        <f>"private String "&amp;B11&amp;" ;//"&amp;C11</f>
+        <v>private String tagId ;//标签ID</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4" t="str">
+        <f>"private String "&amp;B12&amp;" ;//"&amp;C12</f>
+        <v>private String tagValue ;//标签值</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" ref="E16:E17" si="0">"private String "&amp;B16&amp;" ;//"&amp;C16</f>
+        <v>private String code ;//返回结果编码</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>private String description ;//描述</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" location="目录!A1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6380,11 +6632,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -6402,7 +6654,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6437,10 +6689,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>376</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="str">
@@ -6454,13 +6706,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -6528,7 +6780,7 @@
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6555,10 +6807,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>378</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="4" t="str">
@@ -6572,10 +6824,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>379</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4" t="str">
@@ -6589,10 +6841,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>21</v>
+        <v>380</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4" t="str">
@@ -6606,10 +6858,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>25</v>
+        <v>381</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="4" t="str">
@@ -6623,10 +6875,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>26</v>
+        <v>382</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="str">
@@ -6640,7 +6892,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>22</v>
@@ -6657,7 +6909,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>23</v>
@@ -6674,7 +6926,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>24</v>
@@ -6691,13 +6943,13 @@
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6707,7 +6959,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6732,10 +6984,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1"/>
     </row>
@@ -6744,10 +6996,10 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="4" t="str">
@@ -6757,7 +7009,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6782,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>0</v>
@@ -6798,10 +7050,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="4" t="str">
@@ -6814,10 +7066,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="4" t="str">
@@ -6830,10 +7082,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="4" t="str">
@@ -6846,10 +7098,10 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="4" t="str">
@@ -6862,10 +7114,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="4" t="str">
@@ -6878,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="4" t="str">
@@ -6894,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="4" t="str">
@@ -6942,11 +7194,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -6964,7 +7216,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6999,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -7016,10 +7268,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="4" t="str">
@@ -7033,13 +7285,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -7150,11 +7402,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -7172,7 +7424,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -7190,7 +7442,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -7215,7 +7467,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -7232,10 +7484,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="4" t="str">
@@ -7249,10 +7501,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="4" t="str">
@@ -7266,7 +7518,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -7291,10 +7543,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="4" t="str">
@@ -7307,13 +7559,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E16" s="4" t="str">
         <f>"private String "&amp;B16&amp;" ;//"&amp;C16</f>
@@ -7328,7 +7580,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="11"/>
@@ -7353,10 +7605,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4" t="str">
@@ -7369,10 +7621,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4" t="str">
@@ -7390,7 +7642,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -7476,11 +7728,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -7498,7 +7750,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -7533,13 +7785,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>"private String "&amp;B8&amp;" ;//"&amp;C8</f>
@@ -7552,10 +7804,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="4" t="str">
@@ -7569,10 +7821,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="4" t="str">
@@ -7586,10 +7838,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="4" t="str">
@@ -7607,7 +7859,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -7632,10 +7884,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="4" t="str">
@@ -7648,13 +7900,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7756,11 +8008,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -7778,7 +8030,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -7813,13 +8065,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>"private String "&amp;B8&amp;" ;//"&amp;C8</f>
@@ -7887,7 +8139,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="11"/>
@@ -7912,10 +8164,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -7924,10 +8176,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -7968,11 +8220,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -7990,7 +8242,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -8025,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -8093,7 +8345,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="11"/>
@@ -8118,10 +8370,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4" t="str">
@@ -8134,10 +8386,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="4" t="str">
@@ -8151,10 +8403,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4" t="str">
@@ -8167,10 +8419,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4" t="str">
@@ -8183,10 +8435,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="4" t="str">
@@ -8199,10 +8451,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="str">
@@ -8215,10 +8467,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="4" t="str">
@@ -8228,7 +8480,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="11"/>
@@ -8253,10 +8505,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="4" t="str">
@@ -8269,10 +8521,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="4" t="str">
@@ -8285,10 +8537,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="4" t="str">
@@ -8301,10 +8553,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="4" t="str">
@@ -8314,7 +8566,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -8336,10 +8588,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="4" t="str">
@@ -8352,10 +8604,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="4" t="str">
@@ -8368,13 +8620,13 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E37" s="4" t="str">
         <f t="shared" si="2"/>
@@ -8386,10 +8638,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="4" t="str">
@@ -8434,11 +8686,11 @@
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -8456,7 +8708,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -8491,10 +8743,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="5"/>
@@ -8559,7 +8811,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="11"/>
@@ -8584,10 +8836,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4" t="str">
@@ -8600,10 +8852,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="4" t="str">
@@ -8616,10 +8868,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4" t="str">
@@ -8632,10 +8884,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4" t="str">
@@ -8648,10 +8900,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="4" t="str">
@@ -8661,7 +8913,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -8683,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
@@ -8699,10 +8951,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="4" t="str">
@@ -8715,10 +8967,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="4" t="str">
@@ -8731,10 +8983,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="4" t="str">
@@ -8747,10 +8999,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="4" t="str">
@@ -8763,10 +9015,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="4" t="str">
@@ -8779,10 +9031,10 @@
         <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="4" t="str">
@@ -8795,10 +9047,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="4" t="str">
@@ -8811,10 +9063,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="4" t="str">
@@ -8827,10 +9079,10 @@
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="4" t="str">
@@ -8840,7 +9092,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -8862,10 +9114,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="4" t="str">
@@ -8878,10 +9130,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="4" t="str">
@@ -8894,10 +9146,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="4" t="str">
@@ -8910,10 +9162,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="4" t="str">
@@ -8926,10 +9178,10 @@
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="4" t="str">
@@ -8942,10 +9194,10 @@
         <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="4" t="str">
@@ -8958,10 +9210,10 @@
         <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="4" t="str">
@@ -8974,10 +9226,10 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="4" t="str">
@@ -8990,10 +9242,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="4" t="str">
@@ -9006,10 +9258,10 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="4" t="str">
